--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1956093.07525039</v>
+        <v>1950371.463282504</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>343.3588945158828</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.5170142884076</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>89.06613335611783</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>4.553842565068913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>79.27586724417357</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>87.02510801445139</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>51.19565055111467</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>131.5366686688012</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>107.0543928093649</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>37.68696780390566</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>73.23313841979062</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951282</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>122.417947315258</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,7 +2651,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247745</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>163.3804410415612</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>181.4487096095768</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T31" t="n">
-        <v>123.8264475984202</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.09581973348958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>17.84935903930828</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>135.5705851936313</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>109.1425972588404</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>43.30691955935819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>114.6033320444574</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>13.02719212039631</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2079.343073798764</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C2" t="n">
-        <v>1710.380556858352</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.380556858352</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2433.51735681295</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2433.51735681295</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2102.45446946938</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1749.685814199265</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1749.685814199265</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>1359.546482223454</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870807</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>143.9087730891704</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>723.5291432316174</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>509.2407200497801</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917585</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4588,31 +4588,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592772</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.8183646524922</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>382.8183646524922</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>382.8183646524922</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>610.8079155505095</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>610.8079155505095</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>610.8079155505095</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>610.8079155505095</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>610.8079155505095</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>610.8079155505095</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>1783.124109094748</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1414.161592154336</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1055.895893547586</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>670.1076409493417</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>259.1217361597341</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2509.255079661038</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2509.255079661038</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>2509.255079661038</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>2119.115747685226</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1656.52183161904</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1367.418964744684</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1112.734476538797</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>823.3173065018362</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>595.3277556038189</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,16 +5375,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5469,19 +5469,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5560,7 +5560,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,22 +5624,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.9395339702917</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C19" t="n">
-        <v>343.0033510423848</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>192.886711630049</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>192.886711630049</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5706,19 +5706,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1504.823322254687</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1250.1388340488</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>960.7216640118392</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>732.7321131138218</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>511.9395339702917</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5755,16 +5755,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L20" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089883</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5834,10 +5834,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5852,31 +5852,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>435.7957616486535</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>266.8595787207466</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>266.8595787207466</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>266.8595787207466</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1355.643526557401</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>1066.226356520441</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>838.2368056224234</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>617.4442264788933</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5989,28 +5989,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>781.8112129900683</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>612.8750300621614</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498256</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498256</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498256</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1412.241807861855</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>1184.252256963838</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>963.459677820308</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,64 +6214,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600129</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272054</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6302,28 +6302,28 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1509.796376162229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1220.693509287872</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>966.0090210819851</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>966.0090210819851</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>738.0194701839678</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>738.0194701839678</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L29" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.619281250059</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>658.619281250059</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1639.580362135146</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1350.47749526079</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1350.47749526079</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1061.060325223829</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1061.060325223829</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>840.2677460802987</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6709,22 +6709,22 @@
         <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1036.495701195956</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="C34" t="n">
-        <v>867.5595182680493</v>
+        <v>726.2132071615756</v>
       </c>
       <c r="D34" t="n">
-        <v>717.4428788557135</v>
+        <v>576.0965677492399</v>
       </c>
       <c r="E34" t="n">
-        <v>569.5297852733204</v>
+        <v>428.1834741668467</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>281.2935266689364</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>113.5906900436553</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6891,19 +6891,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>1956.343466104704</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W34" t="n">
-        <v>1666.926296067743</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X34" t="n">
-        <v>1438.936745169726</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y34" t="n">
-        <v>1218.144166026196</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6943,31 +6943,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2274.668463554307</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.420735780954</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,31 +7037,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7089,10 +7089,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,16 +7125,16 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1819.403481060632</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1530.300614186275</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>1530.300614186275</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.556111024461</v>
+        <v>1530.300614186275</v>
       </c>
       <c r="X37" t="n">
         <v>1302.311063288258</v>
@@ -7153,19 +7153,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7253,34 +7253,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>583.5523174165364</v>
+        <v>992.8806759532695</v>
       </c>
       <c r="C40" t="n">
-        <v>583.5523174165364</v>
+        <v>823.9444930253626</v>
       </c>
       <c r="D40" t="n">
-        <v>433.4356780042007</v>
+        <v>673.8278536130268</v>
       </c>
       <c r="E40" t="n">
-        <v>285.5225844218076</v>
+        <v>525.9147600306337</v>
       </c>
       <c r="F40" t="n">
-        <v>241.7782212305366</v>
+        <v>379.0248125327233</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>211.3219759074423</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839441</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.746393431758</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U40" t="n">
-        <v>1355.643526557401</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V40" t="n">
-        <v>1100.959038351514</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W40" t="n">
-        <v>811.5418683145538</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="X40" t="n">
-        <v>583.5523174165364</v>
+        <v>992.8806759532695</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.5523174165364</v>
+        <v>992.8806759532695</v>
       </c>
     </row>
     <row r="41">
@@ -7484,28 +7484,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902952</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1943.184686185112</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.767516148151</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.777965250134</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7654,13 +7654,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232731</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7830,10 +7830,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
         <v>1559.196154437386</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>258.6211785616936</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>241.9338129178262</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>170.1140909277307</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10591,19 +10591,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M35" t="n">
-        <v>260.9678829613757</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>161.5631840798974</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>248.5248704017072</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>72.18790960314062</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>16.14213605696662</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>43.60786094377026</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>56.16850823460803</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T31" t="n">
-        <v>95.72250167774901</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.32522828944167</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>126.9056558750125</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25365,19 +25365,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>83.97836408253789</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>116.5670581301968</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>102.1141284635731</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>30.15168286986338</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>239.1104512034317</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.4122974272</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="G2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="H2" t="n">
-        <v>536060.4122974279</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="I2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="J2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974271</v>
       </c>
       <c r="K2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="L2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="M2" t="n">
-        <v>536060.4122974272</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="N2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="O2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="P2" t="n">
         <v>536060.4122974274</v>
-      </c>
-      <c r="P2" t="n">
-        <v>536060.4122974272</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389447</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26429,31 +26429,31 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26493,16 +26493,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-310830.3590119925</v>
       </c>
       <c r="C6" t="n">
-        <v>279137.520202552</v>
+        <v>279137.5202025516</v>
       </c>
       <c r="D6" t="n">
-        <v>279137.5202025518</v>
+        <v>279137.5202025519</v>
       </c>
       <c r="E6" t="n">
-        <v>-309320.1279467843</v>
+        <v>-309992.0828490426</v>
       </c>
       <c r="F6" t="n">
-        <v>418057.2860466217</v>
+        <v>417385.331144364</v>
       </c>
       <c r="G6" t="n">
-        <v>418057.286046622</v>
+        <v>417385.3311443641</v>
       </c>
       <c r="H6" t="n">
-        <v>418057.2860466224</v>
+        <v>417385.331144364</v>
       </c>
       <c r="I6" t="n">
-        <v>418057.2860466222</v>
+        <v>417385.331144364</v>
       </c>
       <c r="J6" t="n">
-        <v>241634.0668540288</v>
+        <v>240962.1119517707</v>
       </c>
       <c r="K6" t="n">
-        <v>418057.2860466219</v>
+        <v>417385.3311443638</v>
       </c>
       <c r="L6" t="n">
-        <v>418057.2860466222</v>
+        <v>417385.331144364</v>
       </c>
       <c r="M6" t="n">
-        <v>288414.9712076769</v>
+        <v>287743.0163054193</v>
       </c>
       <c r="N6" t="n">
-        <v>418057.2860466221</v>
+        <v>417385.3311443643</v>
       </c>
       <c r="O6" t="n">
-        <v>418057.2860466219</v>
+        <v>417385.3311443638</v>
       </c>
       <c r="P6" t="n">
-        <v>418057.2860466217</v>
+        <v>417385.331144364</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.57147555637903</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>9.931306069250212</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>78.24366890293308</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>142.1113494150889</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>285.997024526834</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>59.64008396570644</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>362.5885194696803</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>196.2155898013337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538051777</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>766.6741794499126</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>697.5239273101583</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>568.8760771471024</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37311,19 +37311,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M35" t="n">
-        <v>799.8889987916025</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1950371.463282504</v>
+        <v>1953776.954406955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>220.8342930951818</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>206.5170142884076</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>89.06613335611783</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231289</v>
+        <v>382.8908255841852</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>51.19565055111467</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>150.8400357509153</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.46389722690875</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>107.0543928093649</v>
+        <v>113.2541744914002</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>129.1721819464391</v>
       </c>
       <c r="U16" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.26879610203984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>7.601081015447265</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>35.19569619650072</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.4425172951282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>122.417947315258</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>181.4487096095768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>137.8998463176348</v>
       </c>
       <c r="H34" t="n">
-        <v>17.84935903930828</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380485</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>135.5705851936313</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>114.6033320444574</v>
+        <v>51.06561173382017</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>26.5521508925601</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>24.83054391530829</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1359.546482223454</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830421</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1105.957637232171</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>694.9717324425633</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>277.0079243407502</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.51735681295</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2433.51735681295</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2102.45446946938</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.685814199265</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.685814199265</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1359.546482223454</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694738</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>290.7987205870807</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>143.9087730891704</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>840.413048161013</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718028</v>
+        <v>454.6247955627687</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="6">
@@ -4637,28 +4637,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4713,19 +4713,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783.124109094748</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1414.161592154336</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1055.895893547586</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>670.1076409493417</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>259.1217361597341</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.72394915887</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2169.72394915887</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940989</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117058</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137954</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521278</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,7 +5026,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5038,37 +5038,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5077,16 +5077,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.886711630049</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C13" t="n">
-        <v>192.886711630049</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5229,22 +5229,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1656.52183161904</v>
+        <v>1650.259425879611</v>
       </c>
       <c r="U13" t="n">
-        <v>1367.418964744684</v>
+        <v>1361.156559005254</v>
       </c>
       <c r="V13" t="n">
-        <v>1112.734476538797</v>
+        <v>1106.472070799367</v>
       </c>
       <c r="W13" t="n">
-        <v>823.3173065018362</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="X13" t="n">
-        <v>595.3277556038189</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y13" t="n">
-        <v>374.5351764602888</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,7 +5275,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
@@ -5287,43 +5287,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193956</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5375,16 +5375,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4168978689405</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
         <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1736.036057401182</v>
       </c>
       <c r="U16" t="n">
-        <v>1883.949150983575</v>
+        <v>1736.036057401182</v>
       </c>
       <c r="V16" t="n">
-        <v>1629.264662777688</v>
+        <v>1481.351569195295</v>
       </c>
       <c r="W16" t="n">
-        <v>1339.847492740728</v>
+        <v>1191.934399158335</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.85794184271</v>
+        <v>963.9448482603173</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.0653626991802</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,7 +5624,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5633,7 +5633,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>242.4509819463048</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C19" t="n">
-        <v>242.4509819463048</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5822,34 +5822,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,19 +5925,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
         <v>1542.890966501056</v>
@@ -5946,16 +5946,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,22 +5986,22 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427191</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867998</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N23" t="n">
-        <v>3316.966490094645</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6080,13 +6080,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8112129900683</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>612.8750300621614</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>462.7583906498256</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7583906498256</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>462.7583906498256</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104703</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898816</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.241807861855</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.252256963838</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.459677820308</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,67 +6211,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175503</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.59632740215</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3907.560977731604</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6317,13 +6317,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>909.27315417834</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>895.1493900894825</v>
+        <v>550.0071782166605</v>
       </c>
       <c r="C34" t="n">
-        <v>726.2132071615756</v>
+        <v>381.0709952887536</v>
       </c>
       <c r="D34" t="n">
-        <v>576.0965677492399</v>
+        <v>381.0709952887536</v>
       </c>
       <c r="E34" t="n">
-        <v>428.1834741668467</v>
+        <v>381.0709952887536</v>
       </c>
       <c r="F34" t="n">
-        <v>281.2935266689364</v>
+        <v>381.0709952887536</v>
       </c>
       <c r="G34" t="n">
-        <v>113.5906900436553</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894825</v>
+        <v>770.7997573601906</v>
       </c>
       <c r="Y34" t="n">
-        <v>895.1493900894825</v>
+        <v>550.0071782166605</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,16 +7046,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7125,22 +7125,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1819.403481060632</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1530.300614186275</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1530.300614186275</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>1530.300614186275</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X37" t="n">
-        <v>1302.311063288258</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y37" t="n">
-        <v>1302.311063288258</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="38">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>992.8806759532695</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C40" t="n">
-        <v>823.9444930253626</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D40" t="n">
-        <v>673.8278536130268</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E40" t="n">
-        <v>525.9147600306337</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F40" t="n">
-        <v>379.0248125327233</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="G40" t="n">
-        <v>211.3219759074423</v>
+        <v>147.1424604421522</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839441</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1475.554715057174</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V40" t="n">
-        <v>1220.870226851287</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W40" t="n">
-        <v>1220.870226851287</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X40" t="n">
-        <v>992.8806759532695</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y40" t="n">
-        <v>992.8806759532695</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094646</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7487,37 +7487,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7575,13 +7575,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>593.0356297044514</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,43 +7633,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7727,19 +7727,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7760,10 +7760,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
         <v>1554.419908487875</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1355.643526557402</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1330.562169067191</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>201.9664098701116</v>
+        <v>39.48321557772681</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400261</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>226.7688596193103</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>258.6211785616936</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,10 +9889,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>170.1140909277307</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>258.6211785616905</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400226</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>112.4945564668043</v>
+        <v>106.294774784769</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>90.37676732973014</v>
       </c>
       <c r="U16" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.5631840798974</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>138.8328816311219</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>113.4197768217116</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.14213605696662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>43.60786094377026</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>105.0742887270142</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>28.12596194139346</v>
       </c>
       <c r="H34" t="n">
-        <v>126.9056558750125</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>69.12041821276432</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>83.97836408253789</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>30.15168286986338</v>
+        <v>93.68940318050062</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>199.1575044964771</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>227.3070994085197</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874552.5358744257</v>
+        <v>874552.5358744255</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="F2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="G2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="H2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="I2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="J2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="K2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="L2" t="n">
         <v>536060.4122974274</v>
       </c>
-      <c r="F2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="G2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="H2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="I2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="J2" t="n">
-        <v>536060.4122974271</v>
-      </c>
-      <c r="K2" t="n">
-        <v>536060.4122974273</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>536060.4122974277</v>
       </c>
-      <c r="M2" t="n">
-        <v>536060.4122974274</v>
-      </c>
       <c r="N2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="O2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974279</v>
       </c>
       <c r="P2" t="n">
         <v>536060.4122974274</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709189</v>
       </c>
-      <c r="L4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-310830.3590119925</v>
       </c>
       <c r="C6" t="n">
-        <v>279137.5202025516</v>
+        <v>279137.520202552</v>
       </c>
       <c r="D6" t="n">
-        <v>279137.5202025519</v>
+        <v>279137.520202552</v>
       </c>
       <c r="E6" t="n">
-        <v>-309992.0828490426</v>
+        <v>-309387.3234370101</v>
       </c>
       <c r="F6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563963</v>
       </c>
       <c r="G6" t="n">
-        <v>417385.3311443641</v>
+        <v>417990.0905563963</v>
       </c>
       <c r="H6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563964</v>
       </c>
       <c r="I6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563963</v>
       </c>
       <c r="J6" t="n">
-        <v>240962.1119517707</v>
+        <v>241566.8713638035</v>
       </c>
       <c r="K6" t="n">
-        <v>417385.3311443638</v>
+        <v>417990.0905563962</v>
       </c>
       <c r="L6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563962</v>
       </c>
       <c r="M6" t="n">
-        <v>287743.0163054193</v>
+        <v>288347.7757174515</v>
       </c>
       <c r="N6" t="n">
-        <v>417385.3311443643</v>
+        <v>417990.0905563965</v>
       </c>
       <c r="O6" t="n">
-        <v>417385.3311443638</v>
+        <v>417990.0905563966</v>
       </c>
       <c r="P6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563962</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,10 +26989,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>103.0884796691753</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>9.931306069250212</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>78.24366890293308</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.71246049576317</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858258</v>
+        <v>23.98522015752627</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>362.5885194696803</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>218.8910649275537</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>141.7069916148864</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>740.8875257003384</v>
+        <v>578.4043314079536</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>604.1909851575264</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282451</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>682.3589740116424</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>766.6741794499126</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>568.8760771471024</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>559.0949758541251</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>766.6741794499098</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282419</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
